--- a/tasks/EmployeeWorkLog/TagCounts.xlsx
+++ b/tasks/EmployeeWorkLog/TagCounts.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tags Summary" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Tag</t>
+    <t>Tag in Remarks</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>count</t>
   </si>
   <si>
     <t>approved</t>
